--- a/public/i18N/translateSrcFile_Cust.xlsx
+++ b/public/i18N/translateSrcFile_Cust.xlsx
@@ -8,49 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chan_project\vite-system\public\i18N\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2408B34-09F0-478D-B110-B4C918D95C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0B376B-206F-4A15-B0DF-802F9DA78ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="translate" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">translate!$A$1:$W$3</definedName>
-    <definedName name="Z_26C905C7_2C39_4702_9479_6A8F4386ED3B_.wvu.FilterData" localSheetId="0" hidden="1">translate!$D$1:$W$3</definedName>
-    <definedName name="Z_38507902_7545_485C_834F_5E4850BE1025_.wvu.FilterData" localSheetId="0" hidden="1">translate!$D$1:$K$3</definedName>
-    <definedName name="Z_8ECEFC75_0BA8_4E9D_B916_608021674B63_.wvu.FilterData" localSheetId="0" hidden="1">translate!$D$1:$W$3</definedName>
-    <definedName name="Z_A49D9809_A3E9_4FA2_8EA4_867396B6504A_.wvu.FilterData" localSheetId="0" hidden="1">translate!$D$1:$T$3</definedName>
-    <definedName name="Z_D250C68A_1DD9_40FD_B45F_2D5104E4B2FD_.wvu.FilterData" localSheetId="0" hidden="1">translate!$G$1:$G$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">translate!$A$1:$L$3</definedName>
+    <definedName name="Z_26C905C7_2C39_4702_9479_6A8F4386ED3B_.wvu.FilterData" localSheetId="0" hidden="1">translate!$D$1:$L$3</definedName>
+    <definedName name="Z_38507902_7545_485C_834F_5E4850BE1025_.wvu.FilterData" localSheetId="0" hidden="1">translate!$D$1:$F$3</definedName>
+    <definedName name="Z_8ECEFC75_0BA8_4E9D_B916_608021674B63_.wvu.FilterData" localSheetId="0" hidden="1">translate!$D$1:$L$3</definedName>
+    <definedName name="Z_A49D9809_A3E9_4FA2_8EA4_867396B6504A_.wvu.FilterData" localSheetId="0" hidden="1">translate!$D$1:$K$3</definedName>
+    <definedName name="Z_D250C68A_1DD9_40FD_B45F_2D5104E4B2FD_.wvu.FilterData" localSheetId="0" hidden="1">translate!#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <customWorkbookViews>
+    <customWorkbookView name="AJ篩選 非本人勿用" guid="{26C905C7-2C39-4702-9479-6A8F4386ED3B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="篩選器 3" guid="{D250C68A-1DD9-40FD-B45F-2D5104E4B2FD}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="篩選器 4" guid="{8ECEFC75-0BA8-4E9D-B916-608021674B63}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="篩選器 1" guid="{38507902-7545-485C-834F-5E4850BE1025}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="篩選器 2" guid="{A49D9809-A3E9-4FA2-8EA4-867396B6504A}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="篩選器 1" guid="{38507902-7545-485C-834F-5E4850BE1025}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="篩選器 4" guid="{8ECEFC75-0BA8-4E9D-B916-608021674B63}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="篩選器 3" guid="{D250C68A-1DD9-40FD-B45F-2D5104E4B2FD}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="AJ篩選 非本人勿用" guid="{26C905C7-2C39-4702-9479-6A8F4386ED3B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
-  <si>
-    <t>mulsol_common</t>
-  </si>
-  <si>
-    <t>optimiz_common</t>
-  </si>
-  <si>
-    <t>intelgt_common</t>
-  </si>
-  <si>
-    <t>mmc_common</t>
-  </si>
-  <si>
-    <t>dmd_common</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>zh_TW</t>
   </si>
@@ -66,26 +51,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>rtds_common</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>nodoc_common</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>auto_common</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>fund_common</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>check</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>zh_CN</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -94,10 +59,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>apspub_common</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>縮寫</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -106,10 +67,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>需要協助確認</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>createDate</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -130,10 +87,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>iPASP_common</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>帳號 :</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -159,6 +112,14 @@
   </si>
   <si>
     <t>Group</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>system</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>common</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -166,7 +127,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -221,26 +182,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Microsoft JhengHei UI"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -265,34 +212,13 @@
         <bgColor rgb="FF005A6F"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor theme="0"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -310,39 +236,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -598,11 +541,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P19" sqref="P19"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
@@ -610,209 +553,139 @@
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1"/>
-    <col min="5" max="15" width="15.7109375" customWidth="1"/>
-    <col min="16" max="20" width="50.7109375" customWidth="1"/>
-    <col min="21" max="21" width="12.7109375" customWidth="1"/>
-    <col min="22" max="22" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" customWidth="1"/>
+    <col min="8" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15" customHeight="1">
+      <c r="A2" s="5">
+        <v>100308</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="L2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" ht="15" customHeight="1">
+      <c r="A3" s="5">
+        <v>100309</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q1" s="5" t="s">
+      <c r="J3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" ht="15" customHeight="1">
-      <c r="A2" s="1">
-        <v>100308</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="U2" s="2">
-        <v>1</v>
-      </c>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-    </row>
-    <row r="3" spans="1:23" ht="15" customHeight="1">
-      <c r="A3" s="1">
-        <v>100309</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="U3" s="2">
-        <v>1</v>
-      </c>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
+      <c r="L3" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W3" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V1129">
+  <autoFilter ref="A1:L3" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L1129">
       <sortCondition descending="1" ref="C1:C1129"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:W812">
-    <sortCondition descending="1" ref="R1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:L812">
+    <sortCondition descending="1" ref="I1"/>
   </sortState>
   <customSheetViews>
-    <customSheetView guid="{D250C68A-1DD9-40FD-B45F-2D5104E4B2FD}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{8ECEFC75-0BA8-4E9D-B916-608021674B63}" filter="1" showAutoFilter="1">
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <autoFilter ref="E1:E907" xr:uid="{85C92025-937E-4D33-97F4-C25460DE20E3}"/>
+      <autoFilter ref="A2:AA913" xr:uid="{92554001-9CC9-4478-81D9-D0332A3E91C5}">
+        <filterColumn colId="3">
+          <filters>
+            <filter val="V"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">
-          <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="573770298"/>
-        </ext>
-      </extLst>
-    </customSheetView>
-    <customSheetView guid="{38507902-7545-485C-834F-5E4850BE1025}" filter="1" showAutoFilter="1">
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <autoFilter ref="A2:I613" xr:uid="{E6243267-061A-437C-88CC-4E1BC72F69CE}"/>
-      <extLst>
-        <ext uri="GoogleSheetsCustomDataVersion1">
-          <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="2063878908"/>
-        </ext>
-      </extLst>
-    </customSheetView>
-    <customSheetView guid="{A49D9809-A3E9-4FA2-8EA4-867396B6504A}" filter="1" showAutoFilter="1">
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <autoFilter ref="A1:N612" xr:uid="{51229455-527D-4B09-8B79-8486B5654179}"/>
-      <extLst>
-        <ext uri="GoogleSheetsCustomDataVersion1">
-          <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="2032162165"/>
+          <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="1007846334"/>
         </ext>
       </extLst>
     </customSheetView>
     <customSheetView guid="{26C905C7-2C39-4702-9479-6A8F4386ED3B}" filter="1" showAutoFilter="1">
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <autoFilter ref="A2:AA622" xr:uid="{1DC22F9F-6D0E-4662-A397-347AA813FCA2}">
+      <autoFilter ref="A2:AA622" xr:uid="{BE8CE671-992A-4376-A1FB-3F68440781BB}">
         <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA622">
           <sortCondition ref="L2:L622"/>
           <sortCondition ref="J2:J622"/>
@@ -827,41 +700,53 @@
         </ext>
       </extLst>
     </customSheetView>
-    <customSheetView guid="{8ECEFC75-0BA8-4E9D-B916-608021674B63}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{A49D9809-A3E9-4FA2-8EA4-867396B6504A}" filter="1" showAutoFilter="1">
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <autoFilter ref="A2:AA913" xr:uid="{FAB0B5A9-A99D-42A4-BE5E-601D8E7E1640}">
-        <filterColumn colId="3">
-          <filters>
-            <filter val="V"/>
-          </filters>
-        </filterColumn>
-      </autoFilter>
+      <autoFilter ref="A1:N612" xr:uid="{E6ABD659-EC77-4F52-9A12-6962E45406DB}"/>
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">
-          <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="1007846334"/>
+          <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="2032162165"/>
+        </ext>
+      </extLst>
+    </customSheetView>
+    <customSheetView guid="{38507902-7545-485C-834F-5E4850BE1025}" filter="1" showAutoFilter="1">
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <autoFilter ref="A2:I613" xr:uid="{E6F7897E-B2F3-4BF2-9456-76B9E4AF9F05}"/>
+      <extLst>
+        <ext uri="GoogleSheetsCustomDataVersion1">
+          <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="2063878908"/>
+        </ext>
+      </extLst>
+    </customSheetView>
+    <customSheetView guid="{D250C68A-1DD9-40FD-B45F-2D5104E4B2FD}" filter="1" showAutoFilter="1">
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <autoFilter ref="E1:E907" xr:uid="{926B5E34-0633-4A89-8D83-9D0A1B7722C0}"/>
+      <extLst>
+        <ext uri="GoogleSheetsCustomDataVersion1">
+          <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="573770298"/>
         </ext>
       </extLst>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="P2:T3">
+  <conditionalFormatting sqref="G2:K3">
     <cfRule type="expression" dxfId="3" priority="1">
-      <formula>COUNTIF($Q:$Q,$Q2)&gt;1</formula>
+      <formula>COUNTIF($H:$H,$H2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R3">
+  <conditionalFormatting sqref="I2:I3">
     <cfRule type="expression" dxfId="2" priority="1038">
-      <formula>COUNTIF($R:$R,$R2) &gt; 1</formula>
+      <formula>COUNTIF($I:$I,$I2) &gt; 1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S2:S3">
+  <conditionalFormatting sqref="J2:J3">
     <cfRule type="expression" dxfId="1" priority="1039">
-      <formula>COUNTIF($S:$S,$S2) &gt; 1</formula>
+      <formula>COUNTIF($J:$J,$J2) &gt; 1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T2:T3">
+  <conditionalFormatting sqref="K2:K3">
     <cfRule type="expression" dxfId="0" priority="1040">
-      <formula>COUNTIF($T:$T,$T2) &gt; 1</formula>
+      <formula>COUNTIF($K:$K,$K2) &gt; 1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -870,12 +755,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a874f0ba-44be-4b2a-98a4-eb9ea6f4d70e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="656db63e-0aa2-4982-a6ef-7cfc894502dc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1090,20 +977,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a874f0ba-44be-4b2a-98a4-eb9ea6f4d70e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="656db63e-0aa2-4982-a6ef-7cfc894502dc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{043FBB36-7F63-4B63-8343-64EBAA2E147B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{272F5C3E-8BC0-4DF6-913A-B867BEBD80EE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a874f0ba-44be-4b2a-98a4-eb9ea6f4d70e"/>
+    <ds:schemaRef ds:uri="656db63e-0aa2-4982-a6ef-7cfc894502dc"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1128,12 +1016,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{272F5C3E-8BC0-4DF6-913A-B867BEBD80EE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{043FBB36-7F63-4B63-8343-64EBAA2E147B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a874f0ba-44be-4b2a-98a4-eb9ea6f4d70e"/>
-    <ds:schemaRef ds:uri="656db63e-0aa2-4982-a6ef-7cfc894502dc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>